--- a/骨干网问题1try/数据/邻接矩阵.xlsx
+++ b/骨干网问题1try/数据/邻接矩阵.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="20">
   <si>
     <t>城市距离/km</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -86,7 +86,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,6 +99,12 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -173,7 +179,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -183,163 +189,13 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="30">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="10">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -692,130 +548,130 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T20"/>
+  <dimension ref="A1:V42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="V40" sqref="V40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="5.33203125" customWidth="1"/>
-    <col min="3" max="3" width="5.1640625" customWidth="1"/>
-    <col min="4" max="4" width="5.75" customWidth="1"/>
-    <col min="5" max="5" width="5.4140625" customWidth="1"/>
-    <col min="6" max="6" width="5.58203125" customWidth="1"/>
-    <col min="7" max="7" width="5.83203125" customWidth="1"/>
-    <col min="8" max="8" width="6" customWidth="1"/>
-    <col min="9" max="9" width="6.08203125" customWidth="1"/>
-    <col min="10" max="10" width="5.75" customWidth="1"/>
-    <col min="11" max="12" width="5.25" customWidth="1"/>
-    <col min="13" max="13" width="6.08203125" customWidth="1"/>
-    <col min="14" max="14" width="7.33203125" customWidth="1"/>
-    <col min="15" max="15" width="5.75" customWidth="1"/>
-    <col min="16" max="16" width="6.6640625" customWidth="1"/>
-    <col min="17" max="17" width="5.5" customWidth="1"/>
-    <col min="18" max="18" width="5.9140625" customWidth="1"/>
-    <col min="19" max="19" width="6" customWidth="1"/>
-    <col min="20" max="20" width="6.25" customWidth="1"/>
+    <col min="3" max="3" width="5.33203125" customWidth="1"/>
+    <col min="4" max="4" width="5.1640625" customWidth="1"/>
+    <col min="5" max="5" width="5.75" customWidth="1"/>
+    <col min="6" max="6" width="5.4140625" customWidth="1"/>
+    <col min="7" max="7" width="5.58203125" customWidth="1"/>
+    <col min="8" max="8" width="5.83203125" customWidth="1"/>
+    <col min="9" max="9" width="6" customWidth="1"/>
+    <col min="10" max="10" width="6.08203125" customWidth="1"/>
+    <col min="11" max="11" width="5.75" customWidth="1"/>
+    <col min="12" max="13" width="5.25" customWidth="1"/>
+    <col min="14" max="14" width="6.08203125" customWidth="1"/>
+    <col min="15" max="15" width="7.33203125" customWidth="1"/>
+    <col min="16" max="16" width="5.75" customWidth="1"/>
+    <col min="17" max="17" width="6.6640625" customWidth="1"/>
+    <col min="18" max="18" width="5.5" customWidth="1"/>
+    <col min="19" max="19" width="5.9140625" customWidth="1"/>
+    <col min="20" max="20" width="6" customWidth="1"/>
+    <col min="21" max="21" width="6.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="8">
-        <v>-1</v>
-      </c>
-      <c r="C2" s="5">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="8">
+        <v>-1</v>
+      </c>
+      <c r="D2" s="5">
         <v>19.119314756290599</v>
       </c>
-      <c r="D2" s="5">
+      <c r="E2" s="5">
         <v>49.9368618744668</v>
       </c>
-      <c r="E2" s="5">
+      <c r="F2" s="5">
         <v>62.154880423870502</v>
       </c>
-      <c r="F2" s="5">
+      <c r="G2" s="5">
         <v>64.042004823043399</v>
       </c>
-      <c r="G2" s="1">
-        <v>-1</v>
-      </c>
       <c r="H2" s="1">
         <v>-1</v>
       </c>
       <c r="I2" s="1">
         <v>-1</v>
       </c>
-      <c r="J2" s="6">
+      <c r="J2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K2" s="6">
         <v>105.899618191792</v>
       </c>
-      <c r="K2" s="1">
-        <v>-1</v>
-      </c>
       <c r="L2" s="1">
         <v>-1</v>
       </c>
@@ -843,35 +699,38 @@
       <c r="T2" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="U2" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="5">
         <v>19.119314756290599</v>
       </c>
-      <c r="C3" s="1">
-        <v>-1</v>
-      </c>
       <c r="D3" s="1">
         <v>-1</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F3" s="5">
         <v>48.6817264221933</v>
       </c>
-      <c r="F3" s="1">
-        <v>-1</v>
-      </c>
       <c r="G3" s="1">
         <v>-1</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I3" s="5">
         <v>64.621480459174194</v>
       </c>
-      <c r="I3" s="1">
-        <v>-1</v>
-      </c>
       <c r="J3" s="1">
         <v>-1</v>
       </c>
@@ -905,17 +764,20 @@
       <c r="T3" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="U3" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="5">
         <v>49.9368618744668</v>
       </c>
-      <c r="C4" s="1">
-        <v>-1</v>
-      </c>
       <c r="D4" s="1">
         <v>-1</v>
       </c>
@@ -940,8 +802,8 @@
       <c r="K4" s="1">
         <v>-1</v>
       </c>
-      <c r="L4" s="1">
-        <v>-1</v>
+      <c r="L4" s="10">
+        <v>65.561175306190407</v>
       </c>
       <c r="M4" s="1">
         <v>-1</v>
@@ -967,32 +829,35 @@
       <c r="T4" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="U4" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="5">
         <v>62.154880423870502</v>
       </c>
-      <c r="C5" s="5">
+      <c r="D5" s="5">
         <v>48.6817264221933</v>
       </c>
-      <c r="D5" s="1">
-        <v>-1</v>
-      </c>
       <c r="E5" s="1">
         <v>-1</v>
       </c>
       <c r="F5" s="1">
         <v>-1</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H5" s="5">
         <v>33.872033262333197</v>
       </c>
-      <c r="H5" s="1">
-        <v>-1</v>
-      </c>
       <c r="I5" s="1">
         <v>-1</v>
       </c>
@@ -1011,12 +876,12 @@
       <c r="N5" s="1">
         <v>-1</v>
       </c>
-      <c r="O5" s="6">
+      <c r="O5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P5" s="6">
         <v>142.12407374280801</v>
       </c>
-      <c r="P5" s="1">
-        <v>-1</v>
-      </c>
       <c r="Q5" s="1">
         <v>-1</v>
       </c>
@@ -1029,17 +894,20 @@
       <c r="T5" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="U5" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="5">
         <v>64.042004823043399</v>
       </c>
-      <c r="C6" s="1">
-        <v>-1</v>
-      </c>
       <c r="D6" s="1">
         <v>-1</v>
       </c>
@@ -1052,12 +920,12 @@
       <c r="G6" s="1">
         <v>-1</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I6" s="7">
         <v>84.233332511713598</v>
       </c>
-      <c r="I6" s="1">
-        <v>-1</v>
-      </c>
       <c r="J6" s="1">
         <v>-1</v>
       </c>
@@ -1067,12 +935,12 @@
       <c r="L6" s="1">
         <v>-1</v>
       </c>
-      <c r="M6" s="6">
+      <c r="M6" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N6" s="6">
         <v>128.715413520124</v>
       </c>
-      <c r="N6" s="1">
-        <v>-1</v>
-      </c>
       <c r="O6" s="1">
         <v>-1</v>
       </c>
@@ -1091,13 +959,16 @@
       <c r="T6" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="U6" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="1">
-        <v>-1</v>
+      <c r="B7" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="C7" s="1">
         <v>-1</v>
@@ -1105,24 +976,24 @@
       <c r="D7" s="1">
         <v>-1</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F7" s="5">
         <v>33.872033262333197</v>
       </c>
-      <c r="F7" s="1">
-        <v>-1</v>
-      </c>
       <c r="G7" s="1">
         <v>-1</v>
       </c>
       <c r="H7" s="1">
         <v>-1</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J7" s="5">
         <v>27.238837360108199</v>
       </c>
-      <c r="J7" s="1">
-        <v>-1</v>
-      </c>
       <c r="K7" s="1">
         <v>-1</v>
       </c>
@@ -1153,29 +1024,32 @@
       <c r="T7" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+      <c r="U7" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="1">
-        <v>-1</v>
-      </c>
-      <c r="C8" s="5">
+      <c r="B8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D8" s="5">
         <v>64.621480459174194</v>
       </c>
-      <c r="D8" s="1">
-        <v>-1</v>
-      </c>
       <c r="E8" s="1">
         <v>-1</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G8" s="7">
         <v>84.233332511713598</v>
       </c>
-      <c r="G8" s="1">
-        <v>-1</v>
-      </c>
       <c r="H8" s="1">
         <v>-1</v>
       </c>
@@ -1188,12 +1062,12 @@
       <c r="K8" s="1">
         <v>-1</v>
       </c>
-      <c r="L8" s="4">
+      <c r="L8" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M8" s="4">
         <v>51.365958931367402</v>
       </c>
-      <c r="M8" s="1">
-        <v>-1</v>
-      </c>
       <c r="N8" s="1">
         <v>-1</v>
       </c>
@@ -1215,13 +1089,16 @@
       <c r="T8" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+      <c r="U8" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="1">
-        <v>-1</v>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="C9" s="1">
         <v>-1</v>
@@ -1235,12 +1112,12 @@
       <c r="F9" s="1">
         <v>-1</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H9" s="5">
         <v>27.238837360108199</v>
       </c>
-      <c r="H9" s="1">
-        <v>-1</v>
-      </c>
       <c r="I9" s="1">
         <v>-1</v>
       </c>
@@ -1277,17 +1154,21 @@
       <c r="T9" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
+      <c r="U9" s="1">
+        <v>-1</v>
+      </c>
+      <c r="V9" s="9"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="6">
         <v>105.899618191792</v>
       </c>
-      <c r="C10" s="1">
-        <v>-1</v>
-      </c>
       <c r="D10" s="1">
         <v>-1</v>
       </c>
@@ -1309,12 +1190,12 @@
       <c r="J10" s="1">
         <v>-1</v>
       </c>
-      <c r="K10" s="5">
+      <c r="K10" s="1">
+        <v>-1</v>
+      </c>
+      <c r="L10" s="5">
         <v>64.794871162856595</v>
       </c>
-      <c r="L10" s="1">
-        <v>-1</v>
-      </c>
       <c r="M10" s="1">
         <v>-1</v>
       </c>
@@ -1339,13 +1220,16 @@
       <c r="T10" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+      <c r="U10" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="1">
-        <v>-1</v>
+      <c r="B11" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="C11" s="1">
         <v>-1</v>
@@ -1353,8 +1237,8 @@
       <c r="D11" s="1">
         <v>-1</v>
       </c>
-      <c r="E11" s="1">
-        <v>-1</v>
+      <c r="E11" s="10">
+        <v>65.561175306190407</v>
       </c>
       <c r="F11" s="1">
         <v>-1</v>
@@ -1368,46 +1252,49 @@
       <c r="I11" s="1">
         <v>-1</v>
       </c>
-      <c r="J11" s="5">
+      <c r="J11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K11" s="5">
         <v>64.794871162856595</v>
       </c>
-      <c r="K11" s="1">
-        <v>-1</v>
-      </c>
       <c r="L11" s="1">
         <v>-1</v>
       </c>
       <c r="M11" s="1">
         <v>-1</v>
       </c>
-      <c r="N11" s="7">
+      <c r="N11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O11" s="7">
         <v>85.947478180651899</v>
       </c>
-      <c r="O11" s="1">
-        <v>-1</v>
-      </c>
       <c r="P11" s="1">
         <v>-1</v>
       </c>
       <c r="Q11" s="1">
         <v>-1</v>
       </c>
-      <c r="R11" s="6">
+      <c r="R11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="S11" s="6">
         <v>102.354258150375</v>
       </c>
-      <c r="S11" s="1">
-        <v>-1</v>
-      </c>
       <c r="T11" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+      <c r="U11" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="1">
-        <v>-1</v>
+      <c r="B12" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="C12" s="1">
         <v>-1</v>
@@ -1424,12 +1311,12 @@
       <c r="G12" s="1">
         <v>-1</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I12" s="4">
         <v>51.365958931367402</v>
       </c>
-      <c r="I12" s="1">
-        <v>-1</v>
-      </c>
       <c r="J12" s="1">
         <v>-1</v>
       </c>
@@ -1451,25 +1338,28 @@
       <c r="P12" s="1">
         <v>-1</v>
       </c>
-      <c r="Q12" s="6">
+      <c r="Q12" s="1">
+        <v>-1</v>
+      </c>
+      <c r="R12" s="6">
         <v>178.72638734511801</v>
       </c>
-      <c r="R12" s="1">
-        <v>-1</v>
-      </c>
       <c r="S12" s="1">
         <v>-1</v>
       </c>
       <c r="T12" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+      <c r="U12" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="1">
-        <v>-1</v>
+      <c r="B13" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="C13" s="1">
         <v>-1</v>
@@ -1480,12 +1370,12 @@
       <c r="E13" s="1">
         <v>-1</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G13" s="6">
         <v>128.715413520124</v>
       </c>
-      <c r="G13" s="1">
-        <v>-1</v>
-      </c>
       <c r="H13" s="1">
         <v>-1</v>
       </c>
@@ -1525,13 +1415,16 @@
       <c r="T13" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+      <c r="U13" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="1">
-        <v>-1</v>
+      <c r="B14" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="C14" s="1">
         <v>-1</v>
@@ -1557,12 +1450,12 @@
       <c r="J14" s="1">
         <v>-1</v>
       </c>
-      <c r="K14" s="7">
+      <c r="K14" s="1">
+        <v>-1</v>
+      </c>
+      <c r="L14" s="7">
         <v>85.947478180651899</v>
       </c>
-      <c r="L14" s="1">
-        <v>-1</v>
-      </c>
       <c r="M14" s="1">
         <v>-1</v>
       </c>
@@ -1587,13 +1480,16 @@
       <c r="T14" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
+      <c r="U14" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="1">
-        <v>-1</v>
+      <c r="B15" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="C15" s="1">
         <v>-1</v>
@@ -1601,12 +1497,12 @@
       <c r="D15" s="1">
         <v>-1</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F15" s="6">
         <v>142.12407374280801</v>
       </c>
-      <c r="F15" s="1">
-        <v>-1</v>
-      </c>
       <c r="G15" s="1">
         <v>-1</v>
       </c>
@@ -1649,13 +1545,16 @@
       <c r="T15" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
+      <c r="U15" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="1">
-        <v>-1</v>
+      <c r="B16" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="C16" s="1">
         <v>-1</v>
@@ -1699,25 +1598,28 @@
       <c r="P16" s="1">
         <v>-1</v>
       </c>
-      <c r="Q16" s="4">
+      <c r="Q16" s="1">
+        <v>-1</v>
+      </c>
+      <c r="R16" s="4">
         <v>76.425183755310499</v>
       </c>
-      <c r="R16" s="1">
-        <v>-1</v>
-      </c>
       <c r="S16" s="1">
         <v>-1</v>
       </c>
       <c r="T16" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
+      <c r="U16" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="1">
-        <v>-1</v>
+      <c r="B17" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="C17" s="1">
         <v>-1</v>
@@ -1746,24 +1648,24 @@
       <c r="K17" s="1">
         <v>-1</v>
       </c>
-      <c r="L17" s="6">
+      <c r="L17" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M17" s="6">
         <v>178.72638734511801</v>
       </c>
-      <c r="M17" s="1">
-        <v>-1</v>
-      </c>
       <c r="N17" s="1">
         <v>-1</v>
       </c>
       <c r="O17" s="1">
         <v>-1</v>
       </c>
-      <c r="P17" s="5">
+      <c r="P17" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q17" s="5">
         <v>76.425183755310499</v>
       </c>
-      <c r="Q17" s="1">
-        <v>-1</v>
-      </c>
       <c r="R17" s="1">
         <v>-1</v>
       </c>
@@ -1773,13 +1675,16 @@
       <c r="T17" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
+      <c r="U17" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="1">
-        <v>-1</v>
+      <c r="B18" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="C18" s="1">
         <v>-1</v>
@@ -1805,12 +1710,12 @@
       <c r="J18" s="1">
         <v>-1</v>
       </c>
-      <c r="K18" s="6">
+      <c r="K18" s="1">
+        <v>-1</v>
+      </c>
+      <c r="L18" s="6">
         <v>102.354258150375</v>
       </c>
-      <c r="L18" s="1">
-        <v>-1</v>
-      </c>
       <c r="M18" s="1">
         <v>-1</v>
       </c>
@@ -1829,19 +1734,22 @@
       <c r="R18" s="1">
         <v>-1</v>
       </c>
-      <c r="S18" s="6">
+      <c r="S18" s="1">
+        <v>-1</v>
+      </c>
+      <c r="T18" s="6">
         <v>130.50259261592601</v>
       </c>
-      <c r="T18" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
+      <c r="U18" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="1">
-        <v>-1</v>
+      <c r="B19" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="C19" s="1">
         <v>-1</v>
@@ -1888,22 +1796,25 @@
       <c r="Q19" s="1">
         <v>-1</v>
       </c>
-      <c r="R19" s="6">
+      <c r="R19" s="1">
+        <v>-1</v>
+      </c>
+      <c r="S19" s="6">
         <v>130.50259261592601</v>
       </c>
-      <c r="S19" s="1">
-        <v>-1</v>
-      </c>
-      <c r="T19" s="6">
+      <c r="T19" s="1">
+        <v>-1</v>
+      </c>
+      <c r="U19" s="6">
         <v>80.574690479362403</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="1">
-        <v>-1</v>
+      <c r="B20" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="C20" s="1">
         <v>-1</v>
@@ -1953,15 +1864,1259 @@
       <c r="R20" s="1">
         <v>-1</v>
       </c>
-      <c r="S20" s="6">
+      <c r="S20" s="1">
+        <v>-1</v>
+      </c>
+      <c r="T20" s="6">
         <v>80.574690479362403</v>
       </c>
-      <c r="T20" s="1">
+      <c r="U20" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T23" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U23" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B24" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="8">
+        <v>-1</v>
+      </c>
+      <c r="D24" s="5">
+        <v>1</v>
+      </c>
+      <c r="E24" s="5">
+        <v>2</v>
+      </c>
+      <c r="F24" s="5">
+        <v>3</v>
+      </c>
+      <c r="G24" s="5">
+        <v>5</v>
+      </c>
+      <c r="H24" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I24" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J24" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K24" s="6">
+        <v>10</v>
+      </c>
+      <c r="L24" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M24" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N24" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O24" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P24" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>-1</v>
+      </c>
+      <c r="R24" s="1">
+        <v>-1</v>
+      </c>
+      <c r="S24" s="1">
+        <v>-1</v>
+      </c>
+      <c r="T24" s="1">
+        <v>-1</v>
+      </c>
+      <c r="U24" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B25" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25" s="5">
+        <v>1</v>
+      </c>
+      <c r="D25" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E25" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F25" s="5">
+        <v>4</v>
+      </c>
+      <c r="G25" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H25" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I25" s="5">
+        <v>7</v>
+      </c>
+      <c r="J25" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K25" s="1">
+        <v>-1</v>
+      </c>
+      <c r="L25" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M25" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N25" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O25" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P25" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>-1</v>
+      </c>
+      <c r="R25" s="1">
+        <v>-1</v>
+      </c>
+      <c r="S25" s="1">
+        <v>-1</v>
+      </c>
+      <c r="T25" s="1">
+        <v>-1</v>
+      </c>
+      <c r="U25" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B26" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" s="5">
+        <v>2</v>
+      </c>
+      <c r="D26" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E26" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F26" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G26" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H26" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I26" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J26" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K26" s="1">
+        <v>-1</v>
+      </c>
+      <c r="L26" s="10">
+        <v>11</v>
+      </c>
+      <c r="M26" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N26" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O26" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P26" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q26" s="1">
+        <v>-1</v>
+      </c>
+      <c r="R26" s="1">
+        <v>-1</v>
+      </c>
+      <c r="S26" s="1">
+        <v>-1</v>
+      </c>
+      <c r="T26" s="1">
+        <v>-1</v>
+      </c>
+      <c r="U26" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B27" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="5">
+        <v>3</v>
+      </c>
+      <c r="D27" s="5">
+        <v>4</v>
+      </c>
+      <c r="E27" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F27" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G27" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H27" s="5">
+        <v>6</v>
+      </c>
+      <c r="I27" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J27" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K27" s="1">
+        <v>-1</v>
+      </c>
+      <c r="L27" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M27" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N27" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O27" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P27" s="6">
+        <v>16</v>
+      </c>
+      <c r="Q27" s="1">
+        <v>-1</v>
+      </c>
+      <c r="R27" s="1">
+        <v>-1</v>
+      </c>
+      <c r="S27" s="1">
+        <v>-1</v>
+      </c>
+      <c r="T27" s="1">
+        <v>-1</v>
+      </c>
+      <c r="U27" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="5">
+        <v>5</v>
+      </c>
+      <c r="D28" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E28" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F28" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G28" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H28" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I28" s="7">
+        <v>8</v>
+      </c>
+      <c r="J28" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K28" s="1">
+        <v>-1</v>
+      </c>
+      <c r="L28" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M28" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N28" s="6">
+        <v>14</v>
+      </c>
+      <c r="O28" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P28" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q28" s="1">
+        <v>-1</v>
+      </c>
+      <c r="R28" s="1">
+        <v>-1</v>
+      </c>
+      <c r="S28" s="1">
+        <v>-1</v>
+      </c>
+      <c r="T28" s="1">
+        <v>-1</v>
+      </c>
+      <c r="U28" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B29" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D29" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E29" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F29" s="5">
+        <v>6</v>
+      </c>
+      <c r="G29" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H29" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I29" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J29" s="5">
+        <v>9</v>
+      </c>
+      <c r="K29" s="1">
+        <v>-1</v>
+      </c>
+      <c r="L29" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M29" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N29" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O29" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P29" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q29" s="1">
+        <v>-1</v>
+      </c>
+      <c r="R29" s="1">
+        <v>-1</v>
+      </c>
+      <c r="S29" s="1">
+        <v>-1</v>
+      </c>
+      <c r="T29" s="1">
+        <v>-1</v>
+      </c>
+      <c r="U29" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D30" s="5">
+        <v>7</v>
+      </c>
+      <c r="E30" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F30" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G30" s="7">
+        <v>8</v>
+      </c>
+      <c r="H30" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I30" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J30" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K30" s="1">
+        <v>-1</v>
+      </c>
+      <c r="L30" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M30" s="4">
+        <v>13</v>
+      </c>
+      <c r="N30" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O30" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P30" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q30" s="1">
+        <v>-1</v>
+      </c>
+      <c r="R30" s="1">
+        <v>-1</v>
+      </c>
+      <c r="S30" s="1">
+        <v>-1</v>
+      </c>
+      <c r="T30" s="1">
+        <v>-1</v>
+      </c>
+      <c r="U30" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B31" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D31" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E31" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F31" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G31" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H31" s="5">
+        <v>9</v>
+      </c>
+      <c r="I31" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J31" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K31" s="1">
+        <v>-1</v>
+      </c>
+      <c r="L31" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M31" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N31" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O31" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P31" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q31" s="1">
+        <v>-1</v>
+      </c>
+      <c r="R31" s="1">
+        <v>-1</v>
+      </c>
+      <c r="S31" s="1">
+        <v>-1</v>
+      </c>
+      <c r="T31" s="1">
+        <v>-1</v>
+      </c>
+      <c r="U31" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B32" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="6">
+        <v>10</v>
+      </c>
+      <c r="D32" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E32" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F32" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G32" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H32" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I32" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J32" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K32" s="1">
+        <v>-1</v>
+      </c>
+      <c r="L32" s="5">
+        <v>12</v>
+      </c>
+      <c r="M32" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N32" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O32" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P32" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q32" s="1">
+        <v>-1</v>
+      </c>
+      <c r="R32" s="1">
+        <v>-1</v>
+      </c>
+      <c r="S32" s="1">
+        <v>-1</v>
+      </c>
+      <c r="T32" s="1">
+        <v>-1</v>
+      </c>
+      <c r="U32" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B33" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D33" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E33" s="10">
+        <v>11</v>
+      </c>
+      <c r="F33" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G33" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H33" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I33" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J33" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K33" s="5">
+        <v>12</v>
+      </c>
+      <c r="L33" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M33" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N33" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O33" s="7">
+        <v>15</v>
+      </c>
+      <c r="P33" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q33" s="1">
+        <v>-1</v>
+      </c>
+      <c r="R33" s="1">
+        <v>-1</v>
+      </c>
+      <c r="S33" s="6">
+        <v>19</v>
+      </c>
+      <c r="T33" s="1">
+        <v>-1</v>
+      </c>
+      <c r="U33" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B34" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D34" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E34" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F34" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G34" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H34" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I34" s="4">
+        <v>13</v>
+      </c>
+      <c r="J34" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K34" s="1">
+        <v>-1</v>
+      </c>
+      <c r="L34" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M34" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N34" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O34" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P34" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q34" s="1">
+        <v>-1</v>
+      </c>
+      <c r="R34" s="6">
+        <v>17</v>
+      </c>
+      <c r="S34" s="1">
+        <v>-1</v>
+      </c>
+      <c r="T34" s="1">
+        <v>-1</v>
+      </c>
+      <c r="U34" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B35" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D35" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E35" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F35" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G35" s="6">
+        <v>14</v>
+      </c>
+      <c r="H35" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I35" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J35" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K35" s="1">
+        <v>-1</v>
+      </c>
+      <c r="L35" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M35" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N35" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O35" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P35" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q35" s="1">
+        <v>-1</v>
+      </c>
+      <c r="R35" s="1">
+        <v>-1</v>
+      </c>
+      <c r="S35" s="1">
+        <v>-1</v>
+      </c>
+      <c r="T35" s="1">
+        <v>-1</v>
+      </c>
+      <c r="U35" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="36" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B36" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D36" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E36" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F36" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G36" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H36" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I36" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J36" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K36" s="1">
+        <v>-1</v>
+      </c>
+      <c r="L36" s="7">
+        <v>15</v>
+      </c>
+      <c r="M36" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N36" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O36" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P36" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q36" s="1">
+        <v>-1</v>
+      </c>
+      <c r="R36" s="1">
+        <v>-1</v>
+      </c>
+      <c r="S36" s="1">
+        <v>-1</v>
+      </c>
+      <c r="T36" s="1">
+        <v>-1</v>
+      </c>
+      <c r="U36" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B37" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C37" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D37" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E37" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F37" s="6">
+        <v>16</v>
+      </c>
+      <c r="G37" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H37" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I37" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J37" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K37" s="1">
+        <v>-1</v>
+      </c>
+      <c r="L37" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M37" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N37" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O37" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P37" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q37" s="1">
+        <v>-1</v>
+      </c>
+      <c r="R37" s="1">
+        <v>-1</v>
+      </c>
+      <c r="S37" s="1">
+        <v>-1</v>
+      </c>
+      <c r="T37" s="1">
+        <v>-1</v>
+      </c>
+      <c r="U37" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="38" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B38" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D38" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E38" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F38" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G38" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H38" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I38" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J38" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K38" s="1">
+        <v>-1</v>
+      </c>
+      <c r="L38" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M38" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N38" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O38" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P38" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q38" s="1">
+        <v>-1</v>
+      </c>
+      <c r="R38" s="4">
+        <v>18</v>
+      </c>
+      <c r="S38" s="1">
+        <v>-1</v>
+      </c>
+      <c r="T38" s="1">
+        <v>-1</v>
+      </c>
+      <c r="U38" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="39" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B39" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C39" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D39" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E39" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F39" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G39" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H39" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I39" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J39" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K39" s="1">
+        <v>-1</v>
+      </c>
+      <c r="L39" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M39" s="6">
+        <v>17</v>
+      </c>
+      <c r="N39" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O39" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P39" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q39" s="5">
+        <v>18</v>
+      </c>
+      <c r="R39" s="1">
+        <v>-1</v>
+      </c>
+      <c r="S39" s="1">
+        <v>-1</v>
+      </c>
+      <c r="T39" s="1">
+        <v>-1</v>
+      </c>
+      <c r="U39" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B40" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C40" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D40" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E40" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F40" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G40" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H40" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I40" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J40" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K40" s="1">
+        <v>-1</v>
+      </c>
+      <c r="L40" s="6">
+        <v>19</v>
+      </c>
+      <c r="M40" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N40" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O40" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P40" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q40" s="1">
+        <v>-1</v>
+      </c>
+      <c r="R40" s="1">
+        <v>-1</v>
+      </c>
+      <c r="S40" s="1">
+        <v>-1</v>
+      </c>
+      <c r="T40" s="6">
+        <v>20</v>
+      </c>
+      <c r="U40" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B41" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C41" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D41" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E41" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F41" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G41" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H41" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I41" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J41" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K41" s="1">
+        <v>-1</v>
+      </c>
+      <c r="L41" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M41" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N41" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O41" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P41" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q41" s="1">
+        <v>-1</v>
+      </c>
+      <c r="R41" s="1">
+        <v>-1</v>
+      </c>
+      <c r="S41" s="6">
+        <v>20</v>
+      </c>
+      <c r="T41" s="1">
+        <v>-1</v>
+      </c>
+      <c r="U41" s="6">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B42" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C42" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D42" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E42" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F42" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G42" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H42" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I42" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J42" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K42" s="1">
+        <v>-1</v>
+      </c>
+      <c r="L42" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M42" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N42" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O42" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P42" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q42" s="1">
+        <v>-1</v>
+      </c>
+      <c r="R42" s="1">
+        <v>-1</v>
+      </c>
+      <c r="S42" s="1">
+        <v>-1</v>
+      </c>
+      <c r="T42" s="6">
+        <v>21</v>
+      </c>
+      <c r="U42" s="1">
         <v>-1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>